--- a/jpcore-r4/feature/swg3-practionerRole対応/CodeSystem-jp-procedure-codes-stem7-cs.xlsx
+++ b/jpcore-r4/feature/swg3-practionerRole対応/CodeSystem-jp-procedure-codes-stem7-cs.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>JP Core Procedure Codes(STEM7)</t>
+    <t>JP Core Procedure Codes STEM7</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-01T13:52:43+00:00</t>
+    <t>2022-08-03T11:17:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Procedureで使用する処置のコード 外保連手術基幹コード(STEM7)</t>
+    <t>処置のコード:外保連手術基幹コード(STEM7)</t>
   </si>
   <si>
     <t>Purpose</t>
